--- a/srcript/reg_tab/csr_excel/register/asic/l2_csr.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/l2_csr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="27135" yWindow="45" windowWidth="26010" windowHeight="9570"/>
@@ -878,11 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P0_L2_ADDR_PREFIX,
-P1_L2_ADDR_PREFIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4'h0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,6 +1323,10 @@
   </si>
   <si>
     <t>regio8低位编号 port[6:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0_L2_ADDR_PREFIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1765,12 +1764,33 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,27 +1811,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2127,12 +2126,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="27.75" thickBot="1">
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -2162,25 +2161,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="74" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="76" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2188,9 +2187,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="27">
-      <c r="A5" s="67"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="68"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="33" t="s">
         <v>216</v>
       </c>
@@ -2200,33 +2199,33 @@
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1">
-      <c r="A6" s="67"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="68"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="68"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="33" t="s">
         <v>30</v>
       </c>
@@ -2236,33 +2235,33 @@
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="70"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="68"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="33" t="s">
         <v>23</v>
       </c>
@@ -2272,33 +2271,33 @@
       <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="68"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1">
-      <c r="A11" s="67"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="68"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="33" t="s">
         <v>24</v>
       </c>
@@ -2308,15 +2307,15 @@
       <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1">
-      <c r="A12" s="67"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="68"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="33" t="s">
         <v>25</v>
       </c>
@@ -2326,15 +2325,15 @@
       <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="70"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="68"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="32" t="s">
         <v>28</v>
       </c>
@@ -2344,15 +2343,15 @@
       <c r="F13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1">
-      <c r="A14" s="67"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="68"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="33" t="s">
         <v>29</v>
       </c>
@@ -2362,37 +2361,37 @@
       <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="71"/>
+        <v>249</v>
+      </c>
+      <c r="G15" s="78"/>
       <c r="H15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="79" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="32" t="s">
         <v>28</v>
       </c>
@@ -2402,15 +2401,15 @@
       <c r="F16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="76" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="68"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="33" t="s">
         <v>218</v>
       </c>
@@ -2420,15 +2419,15 @@
       <c r="F17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="68"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="33" t="s">
         <v>219</v>
       </c>
@@ -2438,69 +2437,69 @@
       <c r="F18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A19" s="73"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="68"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="70"/>
+        <v>245</v>
+      </c>
+      <c r="G19" s="77"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="73" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="69" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="74"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="73"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="75"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>271</v>
-      </c>
       <c r="F21" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="75"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="74"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="73"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="75"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="34" t="s">
         <v>85</v>
       </c>
@@ -2510,15 +2509,15 @@
       <c r="F22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="62" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="74"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="73"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="75"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="34" t="s">
         <v>86</v>
       </c>
@@ -2528,15 +2527,15 @@
       <c r="F23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="63"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
-      <c r="A24" s="74"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="73"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="75"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
@@ -2544,13 +2543,13 @@
       <c r="F24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="63"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="74"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="73"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="75"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="34" t="s">
         <v>87</v>
       </c>
@@ -2560,13 +2559,13 @@
       <c r="F25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="63"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="74"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="73"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="75"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="34" t="s">
         <v>88</v>
       </c>
@@ -2576,13 +2575,13 @@
       <c r="F26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="75"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="63"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
-      <c r="A27" s="74"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="73"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="75"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="34" t="s">
         <v>63</v>
       </c>
@@ -2592,13 +2591,13 @@
       <c r="F27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="75"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="63"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
-      <c r="A28" s="74"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="73"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="75"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="34" t="s">
         <v>62</v>
       </c>
@@ -2608,11 +2607,11 @@
       <c r="F28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="75"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="71" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -2623,25 +2622,25 @@
         <v>40</v>
       </c>
       <c r="E29" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="G29" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="72"/>
       <c r="B30" s="46"/>
       <c r="C30" s="63"/>
       <c r="D30" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>6</v>
@@ -2649,8 +2648,8 @@
       <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="72"/>
       <c r="B31" s="14"/>
       <c r="C31" s="63"/>
       <c r="D31" s="34" t="s">
@@ -2667,8 +2666,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
-      <c r="A32" s="66"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="72"/>
       <c r="B32" s="14"/>
       <c r="C32" s="63"/>
       <c r="D32" s="34" t="s">
@@ -2683,12 +2682,12 @@
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
-      <c r="A33" s="66"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="72"/>
       <c r="B33" s="14"/>
       <c r="C33" s="63"/>
       <c r="D33" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E33" s="16">
         <v>4</v>
@@ -2699,8 +2698,8 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
-      <c r="A34" s="66"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="72"/>
       <c r="B34" s="14"/>
       <c r="C34" s="63"/>
       <c r="D34" s="34" t="s">
@@ -2715,8 +2714,8 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
-      <c r="A35" s="66"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="72"/>
       <c r="B35" s="14"/>
       <c r="C35" s="63"/>
       <c r="D35" s="34" t="s">
@@ -2731,8 +2730,8 @@
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
-      <c r="A36" s="66"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="72"/>
       <c r="B36" s="14"/>
       <c r="C36" s="63"/>
       <c r="D36" s="34" t="s">
@@ -2747,8 +2746,8 @@
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
-      <c r="A37" s="66"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="72"/>
       <c r="B37" s="14"/>
       <c r="C37" s="63"/>
       <c r="D37" s="34" t="s">
@@ -2763,8 +2762,8 @@
       <c r="G37" s="63"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
-      <c r="A38" s="65" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="71" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -2775,25 +2774,25 @@
         <v>40</v>
       </c>
       <c r="E38" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="G38" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
-      <c r="A39" s="66"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="72"/>
       <c r="B39" s="46"/>
       <c r="C39" s="63"/>
       <c r="D39" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>6</v>
@@ -2801,8 +2800,8 @@
       <c r="G39" s="63"/>
       <c r="H39" s="45"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
-      <c r="A40" s="66"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="72"/>
       <c r="B40" s="14"/>
       <c r="C40" s="63"/>
       <c r="D40" s="34" t="s">
@@ -2819,8 +2818,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
-      <c r="A41" s="66"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="72"/>
       <c r="B41" s="14"/>
       <c r="C41" s="63"/>
       <c r="D41" s="34" t="s">
@@ -2835,12 +2834,12 @@
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
-      <c r="A42" s="66"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="72"/>
       <c r="B42" s="14"/>
       <c r="C42" s="63"/>
       <c r="D42" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="16">
         <v>4</v>
@@ -2851,8 +2850,8 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
-      <c r="A43" s="66"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="72"/>
       <c r="B43" s="14"/>
       <c r="C43" s="63"/>
       <c r="D43" s="34" t="s">
@@ -2867,8 +2866,8 @@
       <c r="G43" s="63"/>
       <c r="H43" s="63"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
-      <c r="A44" s="66"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="72"/>
       <c r="B44" s="14"/>
       <c r="C44" s="63"/>
       <c r="D44" s="34" t="s">
@@ -2883,8 +2882,8 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
-      <c r="A45" s="66"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="72"/>
       <c r="B45" s="14"/>
       <c r="C45" s="63"/>
       <c r="D45" s="34" t="s">
@@ -2899,8 +2898,8 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
-      <c r="A46" s="66"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="72"/>
       <c r="B46" s="14"/>
       <c r="C46" s="63"/>
       <c r="D46" s="34" t="s">
@@ -2915,48 +2914,48 @@
       <c r="G46" s="63"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
-      <c r="A47" s="74" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F47" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="69" t="s">
         <v>41</v>
       </c>
       <c r="H47" s="29"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
-      <c r="A48" s="74"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="73"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="75"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="75"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="45"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
-      <c r="A49" s="74"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="73"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="75"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="34" t="s">
         <v>97</v>
       </c>
@@ -2966,15 +2965,15 @@
       <c r="F49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="75"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="62" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
-      <c r="A50" s="74"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="73"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="75"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="34" t="s">
         <v>98</v>
       </c>
@@ -2984,15 +2983,15 @@
       <c r="F50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="75"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="63"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
-      <c r="A51" s="74"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="73"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="75"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E51" s="16">
         <v>4</v>
@@ -3000,13 +2999,13 @@
       <c r="F51" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="75"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="63"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
-      <c r="A52" s="74"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="73"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="75"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="34" t="s">
         <v>99</v>
       </c>
@@ -3016,13 +3015,13 @@
       <c r="F52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="75"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="63"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5">
-      <c r="A53" s="74"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="73"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="75"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="34" t="s">
         <v>100</v>
       </c>
@@ -3032,13 +3031,13 @@
       <c r="F53" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="75"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="63"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5">
-      <c r="A54" s="74"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="73"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="75"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="34" t="s">
         <v>67</v>
       </c>
@@ -3048,13 +3047,13 @@
       <c r="F54" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="75"/>
+      <c r="G54" s="69"/>
       <c r="H54" s="63"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5">
-      <c r="A55" s="74"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="73"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="75"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="34" t="s">
         <v>56</v>
       </c>
@@ -3064,11 +3063,11 @@
       <c r="F55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="75"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5">
-      <c r="A56" s="65" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="71" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -3079,25 +3078,25 @@
         <v>40</v>
       </c>
       <c r="E56" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="G56" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="29"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5">
-      <c r="A57" s="66"/>
+    <row r="57" spans="1:8">
+      <c r="A57" s="72"/>
       <c r="B57" s="46"/>
       <c r="C57" s="63"/>
       <c r="D57" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F57" s="46" t="s">
         <v>6</v>
@@ -3105,8 +3104,8 @@
       <c r="G57" s="63"/>
       <c r="H57" s="45"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5">
-      <c r="A58" s="66"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="72"/>
       <c r="B58" s="14"/>
       <c r="C58" s="63"/>
       <c r="D58" s="34" t="s">
@@ -3123,8 +3122,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5">
-      <c r="A59" s="66"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="72"/>
       <c r="B59" s="14"/>
       <c r="C59" s="63"/>
       <c r="D59" s="34" t="s">
@@ -3139,12 +3138,12 @@
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5">
-      <c r="A60" s="66"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="72"/>
       <c r="B60" s="14"/>
       <c r="C60" s="63"/>
       <c r="D60" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E60" s="16">
         <v>4</v>
@@ -3155,8 +3154,8 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5">
-      <c r="A61" s="66"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="72"/>
       <c r="B61" s="14"/>
       <c r="C61" s="63"/>
       <c r="D61" s="34" t="s">
@@ -3171,8 +3170,8 @@
       <c r="G61" s="63"/>
       <c r="H61" s="63"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5">
-      <c r="A62" s="66"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="72"/>
       <c r="B62" s="14"/>
       <c r="C62" s="63"/>
       <c r="D62" s="34" t="s">
@@ -3187,8 +3186,8 @@
       <c r="G62" s="63"/>
       <c r="H62" s="63"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5">
-      <c r="A63" s="66"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="72"/>
       <c r="B63" s="14"/>
       <c r="C63" s="63"/>
       <c r="D63" s="34" t="s">
@@ -3203,8 +3202,8 @@
       <c r="G63" s="63"/>
       <c r="H63" s="63"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5">
-      <c r="A64" s="66"/>
+    <row r="64" spans="1:8">
+      <c r="A64" s="72"/>
       <c r="B64" s="14"/>
       <c r="C64" s="63"/>
       <c r="D64" s="34" t="s">
@@ -3219,8 +3218,8 @@
       <c r="G64" s="63"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5">
-      <c r="A65" s="65" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="71" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -3231,25 +3230,25 @@
         <v>40</v>
       </c>
       <c r="E65" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="F65" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="G65" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="29"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5">
-      <c r="A66" s="66"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="72"/>
       <c r="B66" s="46"/>
       <c r="C66" s="63"/>
       <c r="D66" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F66" s="46" t="s">
         <v>6</v>
@@ -3257,8 +3256,8 @@
       <c r="G66" s="63"/>
       <c r="H66" s="45"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5">
-      <c r="A67" s="66"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="72"/>
       <c r="B67" s="14"/>
       <c r="C67" s="63"/>
       <c r="D67" s="34" t="s">
@@ -3275,8 +3274,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5">
-      <c r="A68" s="66"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="72"/>
       <c r="B68" s="14"/>
       <c r="C68" s="63"/>
       <c r="D68" s="34" t="s">
@@ -3291,12 +3290,12 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5">
-      <c r="A69" s="66"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="72"/>
       <c r="B69" s="14"/>
       <c r="C69" s="63"/>
       <c r="D69" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E69" s="16">
         <v>4</v>
@@ -3307,8 +3306,8 @@
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5">
-      <c r="A70" s="66"/>
+    <row r="70" spans="1:8">
+      <c r="A70" s="72"/>
       <c r="B70" s="14"/>
       <c r="C70" s="63"/>
       <c r="D70" s="34" t="s">
@@ -3323,8 +3322,8 @@
       <c r="G70" s="63"/>
       <c r="H70" s="63"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5">
-      <c r="A71" s="66"/>
+    <row r="71" spans="1:8">
+      <c r="A71" s="72"/>
       <c r="B71" s="14"/>
       <c r="C71" s="63"/>
       <c r="D71" s="34" t="s">
@@ -3339,8 +3338,8 @@
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5">
-      <c r="A72" s="66"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="72"/>
       <c r="B72" s="14"/>
       <c r="C72" s="63"/>
       <c r="D72" s="34" t="s">
@@ -3355,8 +3354,8 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5">
-      <c r="A73" s="66"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="72"/>
       <c r="B73" s="14"/>
       <c r="C73" s="63"/>
       <c r="D73" s="34" t="s">
@@ -3371,82 +3370,82 @@
       <c r="G73" s="63"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5">
-      <c r="A74" s="74" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="73" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="75"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E74" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="F74" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" s="75" t="s">
+      <c r="G74" s="69" t="s">
         <v>41</v>
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5">
-      <c r="A75" s="74"/>
+    <row r="75" spans="1:8">
+      <c r="A75" s="73"/>
       <c r="B75" s="46"/>
-      <c r="C75" s="75"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="E75" s="46" t="s">
-        <v>280</v>
-      </c>
       <c r="F75" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="75"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="37"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5">
-      <c r="A76" s="74"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="73"/>
       <c r="B76" s="42"/>
-      <c r="C76" s="75"/>
+      <c r="C76" s="69"/>
       <c r="D76" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F76" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="G76" s="75"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="37"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5">
-      <c r="A77" s="74"/>
+    <row r="77" spans="1:8">
+      <c r="A77" s="73"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="75"/>
+      <c r="C77" s="69"/>
       <c r="D77" s="34" t="s">
         <v>171</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G77" s="75"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5">
-      <c r="A78" s="74"/>
+    <row r="78" spans="1:8">
+      <c r="A78" s="73"/>
       <c r="B78" s="27"/>
-      <c r="C78" s="75"/>
+      <c r="C78" s="69"/>
       <c r="D78" s="34" t="s">
         <v>172</v>
       </c>
@@ -3456,15 +3455,15 @@
       <c r="F78" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="75"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="28" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5">
-      <c r="A79" s="74"/>
+    <row r="79" spans="1:8">
+      <c r="A79" s="73"/>
       <c r="B79" s="27"/>
-      <c r="C79" s="75"/>
+      <c r="C79" s="69"/>
       <c r="D79" s="34" t="s">
         <v>173</v>
       </c>
@@ -3474,15 +3473,15 @@
       <c r="F79" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="75"/>
-      <c r="H79" s="76" t="s">
+      <c r="G79" s="69"/>
+      <c r="H79" s="70" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
-      <c r="A80" s="74"/>
+    <row r="80" spans="1:8">
+      <c r="A80" s="73"/>
       <c r="B80" s="27"/>
-      <c r="C80" s="75"/>
+      <c r="C80" s="69"/>
       <c r="D80" s="34" t="s">
         <v>174</v>
       </c>
@@ -3492,13 +3491,13 @@
       <c r="F80" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="75"/>
-      <c r="H80" s="76"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5">
-      <c r="A81" s="74"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="70"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="73"/>
       <c r="B81" s="27"/>
-      <c r="C81" s="75"/>
+      <c r="C81" s="69"/>
       <c r="D81" s="34" t="s">
         <v>175</v>
       </c>
@@ -3508,15 +3507,15 @@
       <c r="F81" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="75"/>
-      <c r="H81" s="76"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5">
-      <c r="A82" s="74"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="70"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="73"/>
       <c r="B82" s="27"/>
-      <c r="C82" s="75"/>
+      <c r="C82" s="69"/>
       <c r="D82" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E82" s="16">
         <v>16</v>
@@ -3524,13 +3523,13 @@
       <c r="F82" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G82" s="75"/>
-      <c r="H82" s="76"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5">
-      <c r="A83" s="74"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="70"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="73"/>
       <c r="B83" s="27"/>
-      <c r="C83" s="75"/>
+      <c r="C83" s="69"/>
       <c r="D83" s="34" t="s">
         <v>176</v>
       </c>
@@ -3540,29 +3539,29 @@
       <c r="F83" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G83" s="75"/>
-      <c r="H83" s="76"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5">
-      <c r="A84" s="74"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="70"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="73"/>
       <c r="B84" s="42"/>
-      <c r="C84" s="75"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E84" s="16">
         <v>14</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="G84" s="75"/>
-      <c r="H84" s="76"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5">
-      <c r="A85" s="74"/>
+        <v>255</v>
+      </c>
+      <c r="G84" s="69"/>
+      <c r="H84" s="70"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="73"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="75"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="34" t="s">
         <v>170</v>
       </c>
@@ -3572,13 +3571,13 @@
       <c r="F85" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G85" s="75"/>
-      <c r="H85" s="76"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5">
-      <c r="A86" s="74"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="70"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="73"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="75"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="34" t="s">
         <v>169</v>
       </c>
@@ -3588,13 +3587,13 @@
       <c r="F86" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G86" s="75"/>
-      <c r="H86" s="76"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5">
-      <c r="A87" s="74"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="70"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="73"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="75"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="34" t="s">
         <v>168</v>
       </c>
@@ -3604,13 +3603,13 @@
       <c r="F87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G87" s="75"/>
-      <c r="H87" s="76"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5">
-      <c r="A88" s="74"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="70"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="73"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="75"/>
+      <c r="C88" s="69"/>
       <c r="D88" s="34" t="s">
         <v>167</v>
       </c>
@@ -3620,13 +3619,13 @@
       <c r="F88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="75"/>
-      <c r="H88" s="76"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5">
-      <c r="A89" s="74"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="70"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="73"/>
       <c r="B89" s="15"/>
-      <c r="C89" s="75"/>
+      <c r="C89" s="69"/>
       <c r="D89" s="34" t="s">
         <v>166</v>
       </c>
@@ -3636,15 +3635,15 @@
       <c r="F89" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="75"/>
-      <c r="H89" s="76"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5">
-      <c r="A90" s="74"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="73"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="75"/>
+      <c r="C90" s="69"/>
       <c r="D90" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E90" s="16">
         <v>8</v>
@@ -3652,13 +3651,13 @@
       <c r="F90" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="75"/>
-      <c r="H90" s="76"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5">
-      <c r="A91" s="74"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="70"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="73"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="75"/>
+      <c r="C91" s="69"/>
       <c r="D91" s="34" t="s">
         <v>165</v>
       </c>
@@ -3668,13 +3667,13 @@
       <c r="F91" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="75"/>
-      <c r="H91" s="76"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5">
-      <c r="A92" s="74"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="70"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="73"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="75"/>
+      <c r="C92" s="69"/>
       <c r="D92" s="34" t="s">
         <v>109</v>
       </c>
@@ -3684,15 +3683,15 @@
       <c r="F92" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G92" s="75"/>
-      <c r="H92" s="76" t="s">
+      <c r="G92" s="69"/>
+      <c r="H92" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16.5">
-      <c r="A93" s="74"/>
+    <row r="93" spans="1:8">
+      <c r="A93" s="73"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="75"/>
+      <c r="C93" s="69"/>
       <c r="D93" s="34" t="s">
         <v>110</v>
       </c>
@@ -3702,15 +3701,15 @@
       <c r="F93" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G93" s="75"/>
-      <c r="H93" s="76"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5">
-      <c r="A94" s="74"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="70"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="73"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="75"/>
+      <c r="C94" s="69"/>
       <c r="D94" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E94" s="16">
         <v>4</v>
@@ -3718,13 +3717,13 @@
       <c r="F94" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G94" s="75"/>
-      <c r="H94" s="76"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5">
-      <c r="A95" s="74"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="70"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="73"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="75"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="34" t="s">
         <v>111</v>
       </c>
@@ -3734,13 +3733,13 @@
       <c r="F95" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G95" s="75"/>
-      <c r="H95" s="76"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5">
-      <c r="A96" s="74"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="70"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="73"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="75"/>
+      <c r="C96" s="69"/>
       <c r="D96" s="34" t="s">
         <v>112</v>
       </c>
@@ -3750,13 +3749,13 @@
       <c r="F96" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G96" s="75"/>
-      <c r="H96" s="76"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5">
-      <c r="A97" s="74"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="70"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="73"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="75"/>
+      <c r="C97" s="69"/>
       <c r="D97" s="34" t="s">
         <v>73</v>
       </c>
@@ -3766,13 +3765,13 @@
       <c r="F97" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G97" s="75"/>
-      <c r="H97" s="76"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5">
-      <c r="A98" s="74"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="70"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="73"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="75"/>
+      <c r="C98" s="69"/>
       <c r="D98" s="34" t="s">
         <v>59</v>
       </c>
@@ -3782,11 +3781,11 @@
       <c r="F98" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G98" s="75"/>
-      <c r="H98" s="76"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5">
-      <c r="A99" s="65" t="s">
+      <c r="G98" s="69"/>
+      <c r="H98" s="70"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -3797,25 +3796,25 @@
         <v>40</v>
       </c>
       <c r="E99" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" s="46" t="s">
         <v>281</v>
-      </c>
-      <c r="F99" s="46" t="s">
-        <v>282</v>
       </c>
       <c r="G99" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H99" s="37"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5">
-      <c r="A100" s="66"/>
+    <row r="100" spans="1:8">
+      <c r="A100" s="72"/>
       <c r="B100" s="46"/>
       <c r="C100" s="63"/>
       <c r="D100" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F100" s="46" t="s">
         <v>6</v>
@@ -3823,31 +3822,31 @@
       <c r="G100" s="63"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5">
-      <c r="A101" s="66"/>
+    <row r="101" spans="1:8">
+      <c r="A101" s="72"/>
       <c r="B101" s="42"/>
       <c r="C101" s="63"/>
       <c r="D101" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="42" t="s">
         <v>255</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="G101" s="63"/>
       <c r="H101" s="37"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5">
-      <c r="A102" s="66"/>
+    <row r="102" spans="1:8">
+      <c r="A102" s="72"/>
       <c r="B102" s="27"/>
       <c r="C102" s="63"/>
       <c r="D102" s="34" t="s">
         <v>189</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F102" s="42" t="s">
         <v>6</v>
@@ -3858,7 +3857,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="27"/>
       <c r="C103" s="63"/>
       <c r="D103" s="34" t="s">
@@ -3875,8 +3874,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16.5">
-      <c r="A104" s="66"/>
+    <row r="104" spans="1:8">
+      <c r="A104" s="72"/>
       <c r="B104" s="27"/>
       <c r="C104" s="63"/>
       <c r="D104" s="34" t="s">
@@ -3889,12 +3888,12 @@
         <v>6</v>
       </c>
       <c r="G104" s="63"/>
-      <c r="H104" s="76" t="s">
+      <c r="H104" s="70" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5">
-      <c r="A105" s="66"/>
+    <row r="105" spans="1:8">
+      <c r="A105" s="72"/>
       <c r="B105" s="27"/>
       <c r="C105" s="63"/>
       <c r="D105" s="34" t="s">
@@ -3907,10 +3906,10 @@
         <v>6</v>
       </c>
       <c r="G105" s="63"/>
-      <c r="H105" s="76"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5">
-      <c r="A106" s="66"/>
+      <c r="H105" s="70"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="72"/>
       <c r="B106" s="27"/>
       <c r="C106" s="63"/>
       <c r="D106" s="34" t="s">
@@ -3923,14 +3922,14 @@
         <v>6</v>
       </c>
       <c r="G106" s="63"/>
-      <c r="H106" s="76"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5">
-      <c r="A107" s="66"/>
+      <c r="H106" s="70"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="72"/>
       <c r="B107" s="27"/>
       <c r="C107" s="63"/>
       <c r="D107" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E107" s="16">
         <v>16</v>
@@ -3939,10 +3938,10 @@
         <v>6</v>
       </c>
       <c r="G107" s="63"/>
-      <c r="H107" s="76"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5">
-      <c r="A108" s="66"/>
+      <c r="H107" s="70"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="72"/>
       <c r="B108" s="27"/>
       <c r="C108" s="63"/>
       <c r="D108" s="34" t="s">
@@ -3955,26 +3954,26 @@
         <v>6</v>
       </c>
       <c r="G108" s="63"/>
-      <c r="H108" s="76"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5">
-      <c r="A109" s="66"/>
+      <c r="H108" s="70"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="72"/>
       <c r="B109" s="42"/>
       <c r="C109" s="63"/>
       <c r="D109" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E109" s="16">
         <v>14</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G109" s="63"/>
-      <c r="H109" s="76"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5">
-      <c r="A110" s="66"/>
+      <c r="H109" s="70"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="72"/>
       <c r="B110" s="27"/>
       <c r="C110" s="63"/>
       <c r="D110" s="34" t="s">
@@ -3987,10 +3986,10 @@
         <v>121</v>
       </c>
       <c r="G110" s="63"/>
-      <c r="H110" s="76"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5">
-      <c r="A111" s="66"/>
+      <c r="H110" s="70"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="72"/>
       <c r="B111" s="27"/>
       <c r="C111" s="63"/>
       <c r="D111" s="34" t="s">
@@ -4003,10 +4002,10 @@
         <v>121</v>
       </c>
       <c r="G111" s="63"/>
-      <c r="H111" s="76"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5">
-      <c r="A112" s="66"/>
+      <c r="H111" s="70"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="72"/>
       <c r="B112" s="27"/>
       <c r="C112" s="63"/>
       <c r="D112" s="34" t="s">
@@ -4019,10 +4018,10 @@
         <v>6</v>
       </c>
       <c r="G112" s="63"/>
-      <c r="H112" s="76"/>
-    </row>
-    <row r="113" spans="1:8" ht="16.5">
-      <c r="A113" s="66"/>
+      <c r="H112" s="70"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="72"/>
       <c r="B113" s="27"/>
       <c r="C113" s="63"/>
       <c r="D113" s="34" t="s">
@@ -4035,10 +4034,10 @@
         <v>6</v>
       </c>
       <c r="G113" s="63"/>
-      <c r="H113" s="76"/>
-    </row>
-    <row r="114" spans="1:8" ht="16.5">
-      <c r="A114" s="66"/>
+      <c r="H113" s="70"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="72"/>
       <c r="B114" s="27"/>
       <c r="C114" s="63"/>
       <c r="D114" s="34" t="s">
@@ -4051,14 +4050,14 @@
         <v>6</v>
       </c>
       <c r="G114" s="63"/>
-      <c r="H114" s="76"/>
-    </row>
-    <row r="115" spans="1:8" ht="16.5">
-      <c r="A115" s="66"/>
+      <c r="H114" s="70"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="72"/>
       <c r="B115" s="27"/>
       <c r="C115" s="63"/>
       <c r="D115" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E115" s="16">
         <v>8</v>
@@ -4067,10 +4066,10 @@
         <v>6</v>
       </c>
       <c r="G115" s="63"/>
-      <c r="H115" s="76"/>
-    </row>
-    <row r="116" spans="1:8" ht="16.5">
-      <c r="A116" s="66"/>
+      <c r="H115" s="70"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="72"/>
       <c r="B116" s="27"/>
       <c r="C116" s="63"/>
       <c r="D116" s="34" t="s">
@@ -4083,10 +4082,10 @@
         <v>6</v>
       </c>
       <c r="G116" s="63"/>
-      <c r="H116" s="76"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.5">
-      <c r="A117" s="66"/>
+      <c r="H116" s="70"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="72"/>
       <c r="B117" s="14"/>
       <c r="C117" s="63"/>
       <c r="D117" s="34" t="s">
@@ -4099,12 +4098,12 @@
         <v>6</v>
       </c>
       <c r="G117" s="63"/>
-      <c r="H117" s="76" t="s">
+      <c r="H117" s="70" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5">
-      <c r="A118" s="66"/>
+    <row r="118" spans="1:8">
+      <c r="A118" s="72"/>
       <c r="B118" s="14"/>
       <c r="C118" s="63"/>
       <c r="D118" s="34" t="s">
@@ -4117,14 +4116,14 @@
         <v>35</v>
       </c>
       <c r="G118" s="63"/>
-      <c r="H118" s="76"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.5">
-      <c r="A119" s="66"/>
+      <c r="H118" s="70"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="72"/>
       <c r="B119" s="14"/>
       <c r="C119" s="63"/>
       <c r="D119" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E119" s="16">
         <v>4</v>
@@ -4133,10 +4132,10 @@
         <v>35</v>
       </c>
       <c r="G119" s="63"/>
-      <c r="H119" s="76"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5">
-      <c r="A120" s="66"/>
+      <c r="H119" s="70"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="72"/>
       <c r="B120" s="14"/>
       <c r="C120" s="63"/>
       <c r="D120" s="34" t="s">
@@ -4149,10 +4148,10 @@
         <v>35</v>
       </c>
       <c r="G120" s="63"/>
-      <c r="H120" s="76"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.5">
-      <c r="A121" s="66"/>
+      <c r="H120" s="70"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="72"/>
       <c r="B121" s="14"/>
       <c r="C121" s="63"/>
       <c r="D121" s="34" t="s">
@@ -4165,10 +4164,10 @@
         <v>35</v>
       </c>
       <c r="G121" s="63"/>
-      <c r="H121" s="76"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.5">
-      <c r="A122" s="66"/>
+      <c r="H121" s="70"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="72"/>
       <c r="B122" s="14"/>
       <c r="C122" s="63"/>
       <c r="D122" s="34" t="s">
@@ -4181,10 +4180,10 @@
         <v>35</v>
       </c>
       <c r="G122" s="63"/>
-      <c r="H122" s="76"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.5">
-      <c r="A123" s="66"/>
+      <c r="H122" s="70"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="72"/>
       <c r="B123" s="14"/>
       <c r="C123" s="63"/>
       <c r="D123" s="34" t="s">
@@ -4197,10 +4196,10 @@
         <v>35</v>
       </c>
       <c r="G123" s="63"/>
-      <c r="H123" s="76"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.5">
-      <c r="A124" s="65" t="s">
+      <c r="H123" s="70"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="71" t="s">
         <v>78</v>
       </c>
       <c r="B124" s="14" t="s">
@@ -4211,25 +4210,25 @@
         <v>40</v>
       </c>
       <c r="E124" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124" s="46" t="s">
         <v>281</v>
-      </c>
-      <c r="F124" s="46" t="s">
-        <v>282</v>
       </c>
       <c r="G124" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H124" s="37"/>
     </row>
-    <row r="125" spans="1:8" ht="16.5">
-      <c r="A125" s="66"/>
+    <row r="125" spans="1:8">
+      <c r="A125" s="72"/>
       <c r="B125" s="46"/>
       <c r="C125" s="63"/>
       <c r="D125" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F125" s="46" t="s">
         <v>6</v>
@@ -4237,31 +4236,31 @@
       <c r="G125" s="63"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" ht="16.5">
-      <c r="A126" s="66"/>
+    <row r="126" spans="1:8">
+      <c r="A126" s="72"/>
       <c r="B126" s="42"/>
       <c r="C126" s="63"/>
       <c r="D126" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E126" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F126" s="42" t="s">
         <v>255</v>
-      </c>
-      <c r="F126" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="G126" s="63"/>
       <c r="H126" s="37"/>
     </row>
-    <row r="127" spans="1:8" ht="16.5">
-      <c r="A127" s="66"/>
+    <row r="127" spans="1:8">
+      <c r="A127" s="72"/>
       <c r="B127" s="27"/>
       <c r="C127" s="63"/>
       <c r="D127" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E127" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F127" s="42" t="s">
         <v>6</v>
@@ -4272,7 +4271,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="27"/>
       <c r="C128" s="63"/>
       <c r="D128" s="34" t="s">
@@ -4289,8 +4288,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5">
-      <c r="A129" s="66"/>
+    <row r="129" spans="1:8">
+      <c r="A129" s="72"/>
       <c r="B129" s="27"/>
       <c r="C129" s="63"/>
       <c r="D129" s="34" t="s">
@@ -4303,12 +4302,12 @@
         <v>6</v>
       </c>
       <c r="G129" s="63"/>
-      <c r="H129" s="76" t="s">
+      <c r="H129" s="70" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5">
-      <c r="A130" s="66"/>
+    <row r="130" spans="1:8">
+      <c r="A130" s="72"/>
       <c r="B130" s="27"/>
       <c r="C130" s="63"/>
       <c r="D130" s="34" t="s">
@@ -4321,10 +4320,10 @@
         <v>6</v>
       </c>
       <c r="G130" s="63"/>
-      <c r="H130" s="76"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5">
-      <c r="A131" s="66"/>
+      <c r="H130" s="70"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="72"/>
       <c r="B131" s="27"/>
       <c r="C131" s="63"/>
       <c r="D131" s="34" t="s">
@@ -4337,14 +4336,14 @@
         <v>6</v>
       </c>
       <c r="G131" s="63"/>
-      <c r="H131" s="76"/>
-    </row>
-    <row r="132" spans="1:8" ht="16.5">
-      <c r="A132" s="66"/>
+      <c r="H131" s="70"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="72"/>
       <c r="B132" s="27"/>
       <c r="C132" s="63"/>
       <c r="D132" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E132" s="16">
         <v>16</v>
@@ -4353,10 +4352,10 @@
         <v>6</v>
       </c>
       <c r="G132" s="63"/>
-      <c r="H132" s="76"/>
-    </row>
-    <row r="133" spans="1:8" ht="16.5">
-      <c r="A133" s="66"/>
+      <c r="H132" s="70"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="72"/>
       <c r="B133" s="27"/>
       <c r="C133" s="63"/>
       <c r="D133" s="34" t="s">
@@ -4369,26 +4368,26 @@
         <v>6</v>
       </c>
       <c r="G133" s="63"/>
-      <c r="H133" s="76"/>
-    </row>
-    <row r="134" spans="1:8" ht="16.5">
-      <c r="A134" s="66"/>
+      <c r="H133" s="70"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="72"/>
       <c r="B134" s="42"/>
       <c r="C134" s="63"/>
       <c r="D134" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E134" s="16">
         <v>14</v>
       </c>
       <c r="F134" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G134" s="63"/>
-      <c r="H134" s="76"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.5">
-      <c r="A135" s="66"/>
+      <c r="H134" s="70"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="72"/>
       <c r="B135" s="27"/>
       <c r="C135" s="63"/>
       <c r="D135" s="34" t="s">
@@ -4401,10 +4400,10 @@
         <v>121</v>
       </c>
       <c r="G135" s="63"/>
-      <c r="H135" s="76"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.5">
-      <c r="A136" s="66"/>
+      <c r="H135" s="70"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="72"/>
       <c r="B136" s="27"/>
       <c r="C136" s="63"/>
       <c r="D136" s="34" t="s">
@@ -4417,10 +4416,10 @@
         <v>121</v>
       </c>
       <c r="G136" s="63"/>
-      <c r="H136" s="76"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5">
-      <c r="A137" s="66"/>
+      <c r="H136" s="70"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="72"/>
       <c r="B137" s="27"/>
       <c r="C137" s="63"/>
       <c r="D137" s="34" t="s">
@@ -4433,10 +4432,10 @@
         <v>6</v>
       </c>
       <c r="G137" s="63"/>
-      <c r="H137" s="76"/>
-    </row>
-    <row r="138" spans="1:8" ht="16.5">
-      <c r="A138" s="66"/>
+      <c r="H137" s="70"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="72"/>
       <c r="B138" s="27"/>
       <c r="C138" s="63"/>
       <c r="D138" s="34" t="s">
@@ -4449,10 +4448,10 @@
         <v>6</v>
       </c>
       <c r="G138" s="63"/>
-      <c r="H138" s="76"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5">
-      <c r="A139" s="66"/>
+      <c r="H138" s="70"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="72"/>
       <c r="B139" s="27"/>
       <c r="C139" s="63"/>
       <c r="D139" s="34" t="s">
@@ -4465,14 +4464,14 @@
         <v>6</v>
       </c>
       <c r="G139" s="63"/>
-      <c r="H139" s="76"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5">
-      <c r="A140" s="66"/>
+      <c r="H139" s="70"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="72"/>
       <c r="B140" s="27"/>
       <c r="C140" s="63"/>
       <c r="D140" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E140" s="16">
         <v>8</v>
@@ -4481,10 +4480,10 @@
         <v>6</v>
       </c>
       <c r="G140" s="63"/>
-      <c r="H140" s="76"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5">
-      <c r="A141" s="66"/>
+      <c r="H140" s="70"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="72"/>
       <c r="B141" s="27"/>
       <c r="C141" s="63"/>
       <c r="D141" s="34" t="s">
@@ -4497,10 +4496,10 @@
         <v>6</v>
       </c>
       <c r="G141" s="63"/>
-      <c r="H141" s="76"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.5">
-      <c r="A142" s="66"/>
+      <c r="H141" s="70"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="72"/>
       <c r="B142" s="14"/>
       <c r="C142" s="63"/>
       <c r="D142" s="34" t="s">
@@ -4513,12 +4512,12 @@
         <v>6</v>
       </c>
       <c r="G142" s="63"/>
-      <c r="H142" s="76" t="s">
+      <c r="H142" s="70" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16.5">
-      <c r="A143" s="66"/>
+    <row r="143" spans="1:8">
+      <c r="A143" s="72"/>
       <c r="B143" s="14"/>
       <c r="C143" s="63"/>
       <c r="D143" s="34" t="s">
@@ -4531,14 +4530,14 @@
         <v>35</v>
       </c>
       <c r="G143" s="63"/>
-      <c r="H143" s="76"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.5">
-      <c r="A144" s="66"/>
+      <c r="H143" s="70"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="72"/>
       <c r="B144" s="14"/>
       <c r="C144" s="63"/>
       <c r="D144" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E144" s="16">
         <v>4</v>
@@ -4547,10 +4546,10 @@
         <v>35</v>
       </c>
       <c r="G144" s="63"/>
-      <c r="H144" s="76"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5">
-      <c r="A145" s="66"/>
+      <c r="H144" s="70"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="72"/>
       <c r="B145" s="14"/>
       <c r="C145" s="63"/>
       <c r="D145" s="34" t="s">
@@ -4563,10 +4562,10 @@
         <v>35</v>
       </c>
       <c r="G145" s="63"/>
-      <c r="H145" s="76"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.5">
-      <c r="A146" s="66"/>
+      <c r="H145" s="70"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="72"/>
       <c r="B146" s="14"/>
       <c r="C146" s="63"/>
       <c r="D146" s="34" t="s">
@@ -4579,10 +4578,10 @@
         <v>35</v>
       </c>
       <c r="G146" s="63"/>
-      <c r="H146" s="76"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.5">
-      <c r="A147" s="66"/>
+      <c r="H146" s="70"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="72"/>
       <c r="B147" s="14"/>
       <c r="C147" s="63"/>
       <c r="D147" s="34" t="s">
@@ -4595,10 +4594,10 @@
         <v>35</v>
       </c>
       <c r="G147" s="63"/>
-      <c r="H147" s="76"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5">
-      <c r="A148" s="66"/>
+      <c r="H147" s="70"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="72"/>
       <c r="B148" s="17"/>
       <c r="C148" s="63"/>
       <c r="D148" s="35" t="s">
@@ -4611,9 +4610,9 @@
         <v>35</v>
       </c>
       <c r="G148" s="63"/>
-      <c r="H148" s="76"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5">
+      <c r="H148" s="70"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="59" t="s">
         <v>79</v>
       </c>
@@ -4635,7 +4634,7 @@
       </c>
       <c r="H149" s="28"/>
     </row>
-    <row r="150" spans="1:8" ht="16.5">
+    <row r="150" spans="1:8">
       <c r="A150" s="60"/>
       <c r="B150" s="18"/>
       <c r="C150" s="24"/>
@@ -4653,7 +4652,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16.5">
+    <row r="151" spans="1:8">
       <c r="A151" s="61"/>
       <c r="B151" s="15"/>
       <c r="C151" s="22"/>
@@ -4671,7 +4670,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16.5">
+    <row r="152" spans="1:8">
       <c r="A152" s="59" t="s">
         <v>148</v>
       </c>
@@ -4693,7 +4692,7 @@
       </c>
       <c r="H152" s="29"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5">
+    <row r="153" spans="1:8">
       <c r="A153" s="60"/>
       <c r="B153" s="25"/>
       <c r="C153" s="63"/>
@@ -4709,7 +4708,7 @@
       <c r="G153" s="60"/>
       <c r="H153" s="29"/>
     </row>
-    <row r="154" spans="1:8" ht="16.5">
+    <row r="154" spans="1:8">
       <c r="A154" s="61"/>
       <c r="B154" s="25"/>
       <c r="C154" s="63"/>
@@ -4725,7 +4724,7 @@
       <c r="G154" s="61"/>
       <c r="H154" s="38"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5">
+    <row r="155" spans="1:8">
       <c r="A155" s="28" t="s">
         <v>149</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5">
+    <row r="156" spans="1:8">
       <c r="A156" s="28" t="s">
         <v>150</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16.5">
+    <row r="157" spans="1:8">
       <c r="A157" s="28" t="s">
         <v>151</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16.5">
+    <row r="158" spans="1:8">
       <c r="A158" s="28" t="s">
         <v>152</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16.5">
+    <row r="159" spans="1:8">
       <c r="A159" s="28" t="s">
         <v>153</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16.5">
+    <row r="160" spans="1:8">
       <c r="A160" s="28" t="s">
         <v>154</v>
       </c>
@@ -4869,9 +4868,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16.5">
+    <row r="161" spans="1:8">
       <c r="A161" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B161" s="26" t="s">
         <v>132</v>
@@ -4890,12 +4889,12 @@
         <v>164</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="16.5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B162" s="62" t="s">
         <v>136</v>
@@ -4905,37 +4904,37 @@
         <v>28</v>
       </c>
       <c r="E162" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F162" s="50" t="s">
         <v>294</v>
-      </c>
-      <c r="F162" s="50" t="s">
-        <v>295</v>
       </c>
       <c r="G162" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H162" s="48"/>
     </row>
-    <row r="163" spans="1:8" ht="16.5">
+    <row r="163" spans="1:8">
       <c r="A163" s="61"/>
       <c r="B163" s="64"/>
       <c r="C163" s="48"/>
       <c r="D163" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E163" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="F163" s="50" t="s">
         <v>292</v>
-      </c>
-      <c r="F163" s="50" t="s">
-        <v>293</v>
       </c>
       <c r="G163" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="16.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="28" t="s">
         <v>155</v>
       </c>
@@ -4944,7 +4943,7 @@
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>122</v>
@@ -4959,16 +4958,16 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16.5">
+    <row r="165" spans="1:8">
       <c r="A165" s="59" t="s">
         <v>156</v>
       </c>
       <c r="B165" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C165" s="28"/>
       <c r="D165" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>140</v>
@@ -4981,12 +4980,12 @@
       </c>
       <c r="H165" s="28"/>
     </row>
-    <row r="166" spans="1:8" ht="16.5">
+    <row r="166" spans="1:8">
       <c r="A166" s="61"/>
       <c r="B166" s="64"/>
       <c r="C166" s="28"/>
       <c r="D166" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E166" s="25" t="s">
         <v>138</v>
@@ -5001,410 +5000,424 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16.5">
+    <row r="167" spans="1:8">
       <c r="A167" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B167" s="62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C167" s="44"/>
       <c r="D167" s="34" t="s">
         <v>134</v>
       </c>
       <c r="E167" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F167" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="F167" s="43" t="s">
+      <c r="G167" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="G167" s="44" t="s">
-        <v>268</v>
-      </c>
       <c r="H167" s="44"/>
     </row>
-    <row r="168" spans="1:8" ht="16.5">
+    <row r="168" spans="1:8">
       <c r="A168" s="61"/>
       <c r="B168" s="64"/>
       <c r="C168" s="44"/>
       <c r="D168" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E168" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="E168" s="43" t="s">
-        <v>265</v>
-      </c>
       <c r="F168" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G168" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H168" s="44"/>
     </row>
-    <row r="169" spans="1:8" ht="16.5">
+    <row r="169" spans="1:8">
       <c r="A169" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B169" s="62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C169" s="52"/>
       <c r="D169" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E169" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F169" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G169" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H169" s="52"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5">
+    <row r="170" spans="1:8">
       <c r="A170" s="60"/>
       <c r="B170" s="63"/>
       <c r="C170" s="52"/>
       <c r="D170" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E170" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F170" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="E170" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="F170" s="51" t="s">
-        <v>305</v>
-      </c>
       <c r="G170" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H170" s="52"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5">
+    <row r="171" spans="1:8">
       <c r="A171" s="61"/>
       <c r="B171" s="64"/>
       <c r="C171" s="52"/>
       <c r="D171" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E171" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F171" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="F171" s="51" t="s">
-        <v>301</v>
-      </c>
       <c r="G171" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H171" s="52"/>
     </row>
-    <row r="172" spans="1:8" ht="16.5">
+    <row r="172" spans="1:8">
       <c r="A172" s="59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B172" s="62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C172" s="53"/>
       <c r="D172" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E172" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="F172" s="54" t="s">
         <v>323</v>
-      </c>
-      <c r="F172" s="54" t="s">
-        <v>324</v>
       </c>
       <c r="G172" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H172" s="53"/>
     </row>
-    <row r="173" spans="1:8" ht="16.5">
+    <row r="173" spans="1:8">
       <c r="A173" s="60"/>
       <c r="B173" s="63"/>
       <c r="C173" s="52"/>
       <c r="D173" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E173" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="E173" s="54" t="s">
-        <v>322</v>
-      </c>
       <c r="F173" s="54" t="s">
         <v>6</v>
       </c>
       <c r="G173" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H173" s="52"/>
     </row>
-    <row r="174" spans="1:8" ht="16.5">
+    <row r="174" spans="1:8">
       <c r="A174" s="61"/>
       <c r="B174" s="64"/>
       <c r="C174" s="52"/>
       <c r="D174" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E174" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="F174" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="F174" s="51" t="s">
-        <v>310</v>
-      </c>
       <c r="G174" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H174" s="52"/>
     </row>
-    <row r="175" spans="1:8" ht="16.5">
+    <row r="175" spans="1:8">
       <c r="A175" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B175" s="62" t="s">
         <v>327</v>
-      </c>
-      <c r="B175" s="62" t="s">
-        <v>328</v>
       </c>
       <c r="C175" s="53"/>
       <c r="D175" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E175" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="F175" s="55" t="s">
         <v>348</v>
-      </c>
-      <c r="F175" s="55" t="s">
-        <v>349</v>
       </c>
       <c r="G175" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H175" s="56" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="16.5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="60"/>
       <c r="B176" s="63"/>
       <c r="C176" s="56"/>
       <c r="D176" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F176" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G176" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H176" s="56" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="16.5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="60"/>
       <c r="B177" s="63"/>
       <c r="C177" s="56"/>
       <c r="D177" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E177" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F177" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G177" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H177" s="56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="16.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="60"/>
       <c r="B178" s="63"/>
       <c r="C178" s="53"/>
       <c r="D178" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E178" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F178" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G178" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H178" s="56" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="16.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="60"/>
       <c r="B179" s="63"/>
       <c r="C179" s="53"/>
       <c r="D179" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F179" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G179" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H179" s="56" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="16.5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="60"/>
       <c r="B180" s="63"/>
       <c r="C180" s="53"/>
       <c r="D180" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F180" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G180" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H180" s="56" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="16.5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="60"/>
       <c r="B181" s="63"/>
       <c r="C181" s="53"/>
       <c r="D181" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F181" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G181" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H181" s="56" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="16.5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="60"/>
       <c r="B182" s="63"/>
       <c r="C182" s="53"/>
       <c r="D182" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F182" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G182" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H182" s="56" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="16.5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="61"/>
       <c r="B183" s="64"/>
       <c r="C183" s="53"/>
       <c r="D183" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E183" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F183" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G183" s="53" t="s">
         <v>22</v>
       </c>
       <c r="H183" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A184" s="77" t="s">
+      <c r="A184" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B184" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C184" s="67" t="s">
         <v>311</v>
-      </c>
-      <c r="B184" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="C184" s="79" t="s">
-        <v>312</v>
       </c>
       <c r="D184" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E184" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="F184" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="F184" s="57" t="s">
+      <c r="G184" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="G184" s="77" t="s">
+      <c r="H184" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="H184" s="57" t="s">
+    </row>
+    <row r="185" spans="1:8" s="58" customFormat="1">
+      <c r="A185" s="66"/>
+      <c r="B185" s="69"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E185" s="57" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" s="58" customFormat="1" ht="16.5">
-      <c r="A185" s="78"/>
-      <c r="B185" s="75"/>
-      <c r="C185" s="80"/>
-      <c r="D185" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="E185" s="57" t="s">
+      <c r="F185" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="F185" s="57" t="s">
+      <c r="G185" s="66"/>
+      <c r="H185" s="57" t="s">
         <v>318</v>
-      </c>
-      <c r="G185" s="78"/>
-      <c r="H185" s="57" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A175:A183"/>
-    <mergeCell ref="B175:B183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="H129:H141"/>
-    <mergeCell ref="H142:H148"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="H79:H91"/>
-    <mergeCell ref="H92:H98"/>
-    <mergeCell ref="H104:H116"/>
-    <mergeCell ref="H117:H123"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H31:H37"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="H49:H55"/>
-    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="G124:G148"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="G65:G73"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="G149:G151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="A124:A148"/>
+    <mergeCell ref="C124:C148"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="G4:G15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="G29:G37"/>
     <mergeCell ref="A38:A46"/>
     <mergeCell ref="C38:C46"/>
     <mergeCell ref="G38:G46"/>
@@ -5421,38 +5434,24 @@
     <mergeCell ref="G56:G64"/>
     <mergeCell ref="G99:G123"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="G4:G15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="G65:G73"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="G149:G151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="A124:A148"/>
-    <mergeCell ref="C124:C148"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="G124:G148"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="H49:H55"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="H129:H141"/>
+    <mergeCell ref="H142:H148"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="H79:H91"/>
+    <mergeCell ref="H92:H98"/>
+    <mergeCell ref="H104:H116"/>
+    <mergeCell ref="H117:H123"/>
+    <mergeCell ref="A175:A183"/>
+    <mergeCell ref="B175:B183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="B184:B185"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
